--- a/manualSim/simulation_results.xlsx
+++ b/manualSim/simulation_results.xlsx
@@ -518,23 +518,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/008.espresso.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/008.espresso.din</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00214076644</v>
+        <v>0.002140413721</v>
       </c>
       <c r="D2" t="n">
-        <v>3.265917884837109e-07</v>
+        <v>2.604860056202349e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>528723.05</v>
+        <v>528710</v>
       </c>
       <c r="F2" t="n">
-        <v>23.67957981046117</v>
+        <v>21.39275578320848</v>
       </c>
       <c r="G2" t="n">
         <v>99.78983602020342</v>
@@ -549,35 +549,35 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>72.61091160385874</v>
+        <v>72.62279787104015</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09399222889639661</v>
+        <v>0.06551880555508263</v>
       </c>
       <c r="M2" t="n">
-        <v>514361.525</v>
+        <v>0.000514355</v>
       </c>
       <c r="N2" t="n">
-        <v>11.83978990523058</v>
+        <v>1.069637789160731e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>1034679.7</v>
+        <v>0.0010346698</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4863790312598</v>
+        <v>2.004395170617264e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/008.espresso.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/008.espresso.din</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002139880515</v>
+        <v>0.002139625155000001</v>
       </c>
       <c r="D3" t="n">
         <v>4.336808689942018e-19</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>514339.25</v>
+        <v>0.0005143392499999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O3" t="n">
-        <v>1034623</v>
+        <v>0.001034623</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -622,14 +622,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/008.espresso.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/008.espresso.din</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002139880515</v>
+        <v>0.002139625155000001</v>
       </c>
       <c r="D4" t="n">
         <v>4.336808689942018e-19</v>
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>514339.25</v>
+        <v>0.0005143392499999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O4" t="n">
-        <v>1034623</v>
+        <v>0.001034623</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -674,14 +674,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/013.spice2g6.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/013.spice2g6.din</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002204340990000001</v>
+        <v>0.00220414963</v>
       </c>
       <c r="D5" t="n">
         <v>4.336808689942018e-19</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>521070</v>
+        <v>0.0005210700000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O5" t="n">
-        <v>1049988</v>
+        <v>0.001049988</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -726,14 +726,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/013.spice2g6.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/013.spice2g6.din</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002204340990000001</v>
+        <v>0.00220414963</v>
       </c>
       <c r="D6" t="n">
         <v>4.336808689942018e-19</v>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>521070</v>
+        <v>0.0005210700000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O6" t="n">
-        <v>1049988</v>
+        <v>0.001049988</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -778,14 +778,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/013.spice2g6.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/013.spice2g6.din</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002204340990000001</v>
+        <v>0.00220414963</v>
       </c>
       <c r="D7" t="n">
         <v>4.336808689942018e-19</v>
@@ -815,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>521070</v>
+        <v>0.0005210700000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O7" t="n">
-        <v>1049988</v>
+        <v>0.001049988</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -830,23 +830,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/015.doduc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/015.doduc.din</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002371164492</v>
+        <v>0.002371031363</v>
       </c>
       <c r="D8" t="n">
-        <v>5.106296277890445e-07</v>
+        <v>4.155182443658887e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>576455.9</v>
+        <v>576540.95</v>
       </c>
       <c r="F8" t="n">
-        <v>88.15406967349834</v>
+        <v>51.56183181385239</v>
       </c>
       <c r="G8" t="n">
         <v>99.44133486406785</v>
@@ -861,44 +861,44 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>67.69633459109977</v>
+        <v>67.67864574868088</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03358013465584053</v>
+        <v>0.01719295634177339</v>
       </c>
       <c r="M8" t="n">
-        <v>538227.95</v>
+        <v>0.000538270475</v>
       </c>
       <c r="N8" t="n">
-        <v>44.07703483674918</v>
+        <v>2.578091590691424e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>1089418.6</v>
+        <v>0.0010894861</v>
       </c>
       <c r="P8" t="n">
-        <v>74.56433463794872</v>
+        <v>3.993607391818482e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/015.doduc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/015.doduc.din</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002369162703</v>
+        <v>0.002369057474000001</v>
       </c>
       <c r="D9" t="n">
-        <v>3.863708043848038e-07</v>
+        <v>6.705759940707098e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>576294.35</v>
+        <v>576397.4</v>
       </c>
       <c r="F9" t="n">
-        <v>80.29820981815223</v>
+        <v>99.09813318120578</v>
       </c>
       <c r="G9" t="n">
         <v>99.44133486406785</v>
@@ -913,38 +913,38 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>67.77552144442855</v>
+        <v>67.75118919709116</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02431870378507481</v>
+        <v>0.02716915338697028</v>
       </c>
       <c r="M9" t="n">
-        <v>538147.175</v>
+        <v>0.0005381987</v>
       </c>
       <c r="N9" t="n">
-        <v>40.14910490907612</v>
+        <v>4.954906659059533e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1089273.7</v>
+        <v>0.0010893556</v>
       </c>
       <c r="P9" t="n">
-        <v>63.3909299505852</v>
+        <v>8.041790845329612e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/015.doduc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/015.doduc.din</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00236704128</v>
+        <v>0.00236645568</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E10" t="n">
         <v>576045.5</v>
@@ -971,38 +971,38 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>538022.75</v>
+        <v>0.0005380227500000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O10" t="n">
-        <v>1089073</v>
+        <v>0.001089073</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/022.li.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/022.li.din</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002182356566</v>
+        <v>0.002180372559</v>
       </c>
       <c r="D11" t="n">
-        <v>1.628222410572158e-06</v>
+        <v>1.367118163219272e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>537414.05</v>
+        <v>537370.4</v>
       </c>
       <c r="F11" t="n">
-        <v>201.06944695801</v>
+        <v>208.285357142551</v>
       </c>
       <c r="G11" t="n">
         <v>99.67908559603586</v>
@@ -1017,38 +1017,38 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>82.140804624016</v>
+        <v>82.19474806162036</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1032268800986745</v>
+        <v>0.07125459953373695</v>
       </c>
       <c r="M11" t="n">
-        <v>518707.775</v>
+        <v>0.00051868595</v>
       </c>
       <c r="N11" t="n">
-        <v>100.534723479005</v>
+        <v>1.041426785712779e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1047520.3</v>
+        <v>0.0010474708</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1022459150923</v>
+        <v>1.742284706929472e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/022.li.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/022.li.din</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002173300685</v>
+        <v>0.002171513805</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E12" t="n">
         <v>536352.5</v>
@@ -1075,32 +1075,32 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>518177</v>
+        <v>0.000518177</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1046569</v>
+        <v>0.001046569</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/022.li.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/022.li.din</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002173300685</v>
+        <v>0.002171513805</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E13" t="n">
         <v>536352.5</v>
@@ -1127,29 +1127,29 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>518177</v>
+        <v>0.000518177</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1046569</v>
+        <v>0.001046569</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/023.eqntott.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/023.eqntott.din</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002087438715</v>
+        <v>0.002087099515</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M14" t="n">
-        <v>508644.5</v>
+        <v>0.0005086444999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O14" t="n">
-        <v>1020376</v>
+        <v>0.001020376</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/023.eqntott.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/023.eqntott.din</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002087438715</v>
+        <v>0.002087099515</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M15" t="n">
-        <v>508644.5</v>
+        <v>0.0005086444999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O15" t="n">
-        <v>1020376</v>
+        <v>0.001020376</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1246,14 +1246,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/023.eqntott.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/023.eqntott.din</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002087438715</v>
+        <v>0.002087099515</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M16" t="n">
-        <v>508644.5</v>
+        <v>0.0005086444999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O16" t="n">
-        <v>1020376</v>
+        <v>0.001020376</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1298,23 +1298,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/026.compress.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/026.compress.din</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002212604592</v>
+        <v>0.002209411108</v>
       </c>
       <c r="D17" t="n">
-        <v>2.536118801979813e-06</v>
+        <v>2.832329224874118e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>528891.8</v>
+        <v>528884.6</v>
       </c>
       <c r="F17" t="n">
-        <v>279.5090517317821</v>
+        <v>352.2427997844669</v>
       </c>
       <c r="G17" t="n">
         <v>99.98294546987312</v>
@@ -1329,44 +1329,44 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>62.65713724375091</v>
+        <v>62.62056853380248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07586508421774392</v>
+        <v>0.06983627981588696</v>
       </c>
       <c r="M17" t="n">
-        <v>514445.9</v>
+        <v>0.0005144423</v>
       </c>
       <c r="N17" t="n">
-        <v>139.754525865891</v>
+        <v>1.761213998922548e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>1043543.8</v>
+        <v>0.001043551</v>
       </c>
       <c r="P17" t="n">
-        <v>256.7383103473263</v>
+        <v>3.099974193440727e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/026.compress.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/026.compress.din</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002219329368</v>
+        <v>0.0022159122</v>
       </c>
       <c r="D18" t="n">
-        <v>3.506460805181732e-06</v>
+        <v>2.393917334520857e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>529975.4</v>
+        <v>530031.2</v>
       </c>
       <c r="F18" t="n">
-        <v>500.2324359735182</v>
+        <v>271.9519442842798</v>
       </c>
       <c r="G18" t="n">
         <v>99.98294546987312</v>
@@ -1381,44 +1381,44 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>62.56998181002582</v>
+        <v>62.59834637689183</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08697190237569137</v>
+        <v>0.08512013515073281</v>
       </c>
       <c r="M18" t="n">
-        <v>514987.7</v>
+        <v>0.0005150155999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>250.1162179867591</v>
+        <v>1.359759721421416e-07</v>
       </c>
       <c r="O18" t="n">
-        <v>1044533.8</v>
+        <v>0.0010445536</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4605335521787</v>
+        <v>2.585115858138618e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/026.compress.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/026.compress.din</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002196100566</v>
+        <v>0.002194401031000001</v>
       </c>
       <c r="D19" t="n">
-        <v>4.245391081474467e-06</v>
+        <v>4.967472645107269e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>530687.3</v>
+        <v>530762.45</v>
       </c>
       <c r="F19" t="n">
-        <v>403.3626903916623</v>
+        <v>589.0032448976831</v>
       </c>
       <c r="G19" t="n">
         <v>99.98294546987312</v>
@@ -1433,38 +1433,38 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.34356050734637</v>
+        <v>62.3551950069881</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1546395594252682</v>
+        <v>0.1424878905089151</v>
       </c>
       <c r="M19" t="n">
-        <v>515343.65</v>
+        <v>0.0005153812250000001</v>
       </c>
       <c r="N19" t="n">
-        <v>201.6813451958311</v>
+        <v>2.945016224488577e-07</v>
       </c>
       <c r="O19" t="n">
-        <v>1045288</v>
+        <v>0.0010452979</v>
       </c>
       <c r="P19" t="n">
-        <v>454.780606446669</v>
+        <v>5.464186032703954e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/034.mdljdp2.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/034.mdljdp2.din</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00219639437</v>
+        <v>0.002195873494</v>
       </c>
       <c r="D20" t="n">
-        <v>1.968091947038716e-07</v>
+        <v>1.687225667893194e-07</v>
       </c>
       <c r="E20" t="n">
         <v>538493</v>
@@ -1485,35 +1485,35 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27190673185407</v>
+        <v>53.26814591951862</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03467297652235102</v>
+        <v>0.03008649868371691</v>
       </c>
       <c r="M20" t="n">
-        <v>519246.5</v>
+        <v>0.0005192465000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>11.0227038425243</v>
+        <v>1.102270384251195e-08</v>
       </c>
       <c r="O20" t="n">
-        <v>1039920.4</v>
+        <v>0.0010399204</v>
       </c>
       <c r="P20" t="n">
-        <v>17.63632614803888</v>
+        <v>1.763632614810411e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/034.mdljdp2.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/034.mdljdp2.din</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00219609455</v>
+        <v>0.002195641429999999</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M21" t="n">
-        <v>519237.5</v>
+        <v>0.0005192375000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O21" t="n">
-        <v>1039906</v>
+        <v>0.001039906</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1558,14 +1558,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/034.mdljdp2.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/034.mdljdp2.din</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00219609455</v>
+        <v>0.002195641429999999</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M22" t="n">
-        <v>519237.5</v>
+        <v>0.0005192375000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O22" t="n">
-        <v>1039906</v>
+        <v>0.001039906</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1610,14 +1610,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/039.wave5.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/039.wave5.din</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002120679545</v>
+        <v>0.002120647545</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>3.552713678800501e-15</v>
       </c>
       <c r="M23" t="n">
-        <v>511481.75</v>
+        <v>0.00051148175</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1022545</v>
+        <v>0.001022545</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1662,14 +1662,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/039.wave5.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/039.wave5.din</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002120679545</v>
+        <v>0.002120647545</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>3.552713678800501e-15</v>
       </c>
       <c r="M24" t="n">
-        <v>511481.75</v>
+        <v>0.00051148175</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1022545</v>
+        <v>0.001022545</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/039.wave5.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/039.wave5.din</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002120679545</v>
+        <v>0.002120647545</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>3.552713678800501e-15</v>
       </c>
       <c r="M25" t="n">
-        <v>511481.75</v>
+        <v>0.00051148175</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1022545</v>
+        <v>0.001022545</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1766,23 +1766,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/047.tomcatv.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/047.tomcatv.din</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002282211831</v>
+        <v>0.002284027786</v>
       </c>
       <c r="D26" t="n">
-        <v>3.672276986171267e-06</v>
+        <v>2.383083994858139e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>528333.8</v>
+        <v>528679.85</v>
       </c>
       <c r="F26" t="n">
-        <v>210.7441814143394</v>
+        <v>172.1454399628407</v>
       </c>
       <c r="G26" t="n">
         <v>99.98570370274101</v>
@@ -1797,44 +1797,44 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>42.27054632057728</v>
+        <v>42.19541190898472</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03584151272142982</v>
+        <v>0.02947530563395128</v>
       </c>
       <c r="M26" t="n">
-        <v>514166.9</v>
+        <v>0.0005143399249999999</v>
       </c>
       <c r="N26" t="n">
-        <v>105.3720907071697</v>
+        <v>8.607271998144158e-08</v>
       </c>
       <c r="O26" t="n">
-        <v>1048832.2</v>
+        <v>0.0010491355</v>
       </c>
       <c r="P26" t="n">
-        <v>173.2494155834299</v>
+        <v>1.497492904824835e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/047.tomcatv.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/047.tomcatv.din</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002290010094</v>
+        <v>0.002291945165</v>
       </c>
       <c r="D27" t="n">
-        <v>3.790003009733533e-06</v>
+        <v>1.687874126207215e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>527772.65</v>
+        <v>528068.3</v>
       </c>
       <c r="F27" t="n">
-        <v>242.7419463133638</v>
+        <v>149.8331071559286</v>
       </c>
       <c r="G27" t="n">
         <v>99.98570370274101</v>
@@ -1849,44 +1849,44 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.52283066116227</v>
+        <v>42.46454402909774</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05487043313249434</v>
+        <v>0.03034106179046232</v>
       </c>
       <c r="M27" t="n">
-        <v>513886.325</v>
+        <v>0.0005140341500000001</v>
       </c>
       <c r="N27" t="n">
-        <v>121.3709731566819</v>
+        <v>7.491655357795904e-08</v>
       </c>
       <c r="O27" t="n">
-        <v>1048287.7</v>
+        <v>0.001048528</v>
       </c>
       <c r="P27" t="n">
-        <v>203.2107526682582</v>
+        <v>1.327004144680994e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/047.tomcatv.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/047.tomcatv.din</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002295745438</v>
+        <v>0.002294935551</v>
       </c>
       <c r="D28" t="n">
-        <v>3.41628314114347e-06</v>
+        <v>4.013733155321184e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>527875.25</v>
+        <v>527770.4</v>
       </c>
       <c r="F28" t="n">
-        <v>311.2377106007561</v>
+        <v>281.1963548839138</v>
       </c>
       <c r="G28" t="n">
         <v>99.98570370274101</v>
@@ -1901,38 +1901,38 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>42.55617348606133</v>
+        <v>42.57008136399733</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05955609226879072</v>
+        <v>0.04652419837881408</v>
       </c>
       <c r="M28" t="n">
-        <v>513937.625</v>
+        <v>0.0005138851999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>155.618855300378</v>
+        <v>1.405981774419596e-07</v>
       </c>
       <c r="O28" t="n">
-        <v>1048352.5</v>
+        <v>0.001048267</v>
       </c>
       <c r="P28" t="n">
-        <v>253.7377583254018</v>
+        <v>2.266856854765854e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/048.ora.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/048.ora.din</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00209938572</v>
+        <v>0.002099375479999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E29" t="n">
         <v>518667</v>
@@ -1959,32 +1959,32 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>509334</v>
+        <v>0.0005093340000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O29" t="n">
-        <v>1018002</v>
+        <v>0.001018002</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/048.ora.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/048.ora.din</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00209938572</v>
+        <v>0.002099375479999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E30" t="n">
         <v>518667</v>
@@ -2011,32 +2011,32 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>509334</v>
+        <v>0.0005093340000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O30" t="n">
-        <v>1018002</v>
+        <v>0.001018002</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/048.ora.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/048.ora.din</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00209938572</v>
+        <v>0.002099375479999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E31" t="n">
         <v>518667</v>
@@ -2063,38 +2063,38 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>509334</v>
+        <v>0.0005093340000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O31" t="n">
-        <v>1018002</v>
+        <v>0.001018002</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/085.gcc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/085.gcc.din</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002537655161</v>
+        <v>0.002535092942</v>
       </c>
       <c r="D32" t="n">
-        <v>4.192991434012704e-06</v>
+        <v>2.103945698139681e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>618667.7</v>
+        <v>618651.05</v>
       </c>
       <c r="F32" t="n">
-        <v>624.2432698876297</v>
+        <v>352.9816177933349</v>
       </c>
       <c r="G32" t="n">
         <v>98.36975555313238</v>
@@ -2109,44 +2109,44 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.04268115310065</v>
+        <v>86.04343685454543</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07888815698564941</v>
+        <v>0.04502402763094185</v>
       </c>
       <c r="M32" t="n">
-        <v>559333.85</v>
+        <v>0.000559325525</v>
       </c>
       <c r="N32" t="n">
-        <v>312.1216349438149</v>
+        <v>1.764908088966897e-07</v>
       </c>
       <c r="O32" t="n">
-        <v>1170283.6</v>
+        <v>0.0011702719</v>
       </c>
       <c r="P32" t="n">
-        <v>503.5530160767583</v>
+        <v>2.89191441782088e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/085.gcc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/085.gcc.din</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002478194331</v>
+        <v>0.00247423893</v>
       </c>
       <c r="D33" t="n">
-        <v>2.106088936893315e-06</v>
+        <v>1.782711583494269e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>609414.8</v>
+        <v>609184.85</v>
       </c>
       <c r="F33" t="n">
-        <v>277.1152467837164</v>
+        <v>235.6131416114135</v>
       </c>
       <c r="G33" t="n">
         <v>98.36975555313238</v>
@@ -2161,44 +2161,44 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>87.27910535006286</v>
+        <v>87.30924711211122</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0525691534486054</v>
+        <v>0.03591337470294263</v>
       </c>
       <c r="M33" t="n">
-        <v>554707.4</v>
+        <v>0.0005545924250000001</v>
       </c>
       <c r="N33" t="n">
-        <v>138.5576233918582</v>
+        <v>1.178065708057255e-07</v>
       </c>
       <c r="O33" t="n">
-        <v>1162739.8</v>
+        <v>0.0011625499</v>
       </c>
       <c r="P33" t="n">
-        <v>231.6971298915893</v>
+        <v>1.859954031690434e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/085.gcc.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/085.gcc.din</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002472496191</v>
+        <v>0.002471007495</v>
       </c>
       <c r="D34" t="n">
-        <v>1.366709551720527e-06</v>
+        <v>1.036645349422887e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>608520.2</v>
+        <v>608691.2</v>
       </c>
       <c r="F34" t="n">
-        <v>224.0096203291278</v>
+        <v>191.079983253087</v>
       </c>
       <c r="G34" t="n">
         <v>98.36975555313238</v>
@@ -2213,44 +2213,44 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>87.41901866866617</v>
+        <v>87.38932397677763</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02818736195794443</v>
+        <v>0.02752459645234941</v>
       </c>
       <c r="M34" t="n">
-        <v>554260.1</v>
+        <v>0.0005543455999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>112.0048101645639</v>
+        <v>9.553999162652892e-08</v>
       </c>
       <c r="O34" t="n">
-        <v>1161992.8</v>
+        <v>0.001162135</v>
       </c>
       <c r="P34" t="n">
-        <v>179.2695177658489</v>
+        <v>1.570751412541164e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/089.su2cor.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/089.su2cor.din</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002160374211</v>
+        <v>0.002159366669</v>
       </c>
       <c r="D35" t="n">
-        <v>7.916688743683628e-07</v>
+        <v>6.05117609877504e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>531041.9</v>
+        <v>530992.4</v>
       </c>
       <c r="F35" t="n">
-        <v>118.544042448366</v>
+        <v>59.92945853251137</v>
       </c>
       <c r="G35" t="n">
         <v>99.93475143824922</v>
@@ -2265,38 +2265,38 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K35" t="n">
-        <v>40.78480114642233</v>
+        <v>40.79116527300112</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09082889353288176</v>
+        <v>0.0549885451648101</v>
       </c>
       <c r="M35" t="n">
-        <v>515520.95</v>
+        <v>0.0005154961999999999</v>
       </c>
       <c r="N35" t="n">
-        <v>59.272021224183</v>
+        <v>2.996472926626524e-08</v>
       </c>
       <c r="O35" t="n">
-        <v>1035542.8</v>
+        <v>0.0010355086</v>
       </c>
       <c r="P35" t="n">
-        <v>104.7098849201927</v>
+        <v>5.723320714410909e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/089.su2cor.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/089.su2cor.din</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002154749071</v>
+        <v>0.002154514295000001</v>
       </c>
       <c r="D36" t="n">
-        <v>3.178146798120227e-07</v>
+        <v>3.16654768351877e-07</v>
       </c>
       <c r="E36" t="n">
         <v>530811.5</v>
@@ -2323,13 +2323,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M36" t="n">
-        <v>515405.75</v>
+        <v>0.0005154057499999999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O36" t="n">
-        <v>1035325</v>
+        <v>0.001035325</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2338,17 +2338,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/089.su2cor.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/089.su2cor.din</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002153134955</v>
+        <v>0.002152818795</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E37" t="n">
         <v>530811.5</v>
@@ -2375,13 +2375,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M37" t="n">
-        <v>515405.75</v>
+        <v>0.0005154057499999999</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O37" t="n">
-        <v>1035325</v>
+        <v>0.001035325</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2390,23 +2390,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/090.hydro2d.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/090.hydro2d.din</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002408141353</v>
+        <v>0.002398494797</v>
       </c>
       <c r="D38" t="n">
-        <v>5.447976513810936e-06</v>
+        <v>5.983912899516144e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>567073.4</v>
+        <v>566382.2</v>
       </c>
       <c r="F38" t="n">
-        <v>574.422135715538</v>
+        <v>778.9555892347137</v>
       </c>
       <c r="G38" t="n">
         <v>99.88152608296114</v>
@@ -2421,44 +2421,44 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K38" t="n">
-        <v>60.00434936206477</v>
+        <v>60.14559817597452</v>
       </c>
       <c r="L38" t="n">
-        <v>0.13866494938035</v>
+        <v>0.1243659882150458</v>
       </c>
       <c r="M38" t="n">
-        <v>533536.7</v>
+        <v>0.0005331911</v>
       </c>
       <c r="N38" t="n">
-        <v>287.211067857769</v>
+        <v>3.894777946173502e-07</v>
       </c>
       <c r="O38" t="n">
-        <v>1078813</v>
+        <v>0.0010782136</v>
       </c>
       <c r="P38" t="n">
-        <v>512.7946957603989</v>
+        <v>6.605558568357403e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/090.hydro2d.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/090.hydro2d.din</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002381662587</v>
+        <v>0.002375512730999999</v>
       </c>
       <c r="D39" t="n">
-        <v>4.686598332762873e-06</v>
+        <v>4.972347432557885e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>563510.3</v>
+        <v>563225.9</v>
       </c>
       <c r="F39" t="n">
-        <v>571.8620113279077</v>
+        <v>561.4615213885987</v>
       </c>
       <c r="G39" t="n">
         <v>99.88152608296114</v>
@@ -2473,44 +2473,44 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K39" t="n">
-        <v>60.85158667578812</v>
+        <v>60.9151533471514</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1275106857433402</v>
+        <v>0.1545169970604658</v>
       </c>
       <c r="M39" t="n">
-        <v>531755.15</v>
+        <v>0.00053161295</v>
       </c>
       <c r="N39" t="n">
-        <v>285.9310056639538</v>
+        <v>2.807307606943137e-07</v>
       </c>
       <c r="O39" t="n">
-        <v>1075207.6</v>
+        <v>0.0010749574</v>
       </c>
       <c r="P39" t="n">
-        <v>506.1201833556927</v>
+        <v>5.323132912111074e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/090.hydro2d.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/090.hydro2d.din</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002372276948</v>
+        <v>0.002367848288999999</v>
       </c>
       <c r="D40" t="n">
-        <v>5.38601270837529e-06</v>
+        <v>6.787230313614235e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>563369.45</v>
+        <v>563464.4</v>
       </c>
       <c r="F40" t="n">
-        <v>731.9425336049271</v>
+        <v>856.5328890357918</v>
       </c>
       <c r="G40" t="n">
         <v>99.88152608296114</v>
@@ -2525,38 +2525,38 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K40" t="n">
-        <v>60.96587209300951</v>
+        <v>60.96479571028972</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2017533665906079</v>
+        <v>0.1570967975103601</v>
       </c>
       <c r="M40" t="n">
-        <v>531684.725</v>
+        <v>0.0005317322</v>
       </c>
       <c r="N40" t="n">
-        <v>365.9712668024636</v>
+        <v>4.282664445179057e-07</v>
       </c>
       <c r="O40" t="n">
-        <v>1075104.1</v>
+        <v>0.0010751644</v>
       </c>
       <c r="P40" t="n">
-        <v>717.807975714954</v>
+        <v>7.331349398303326e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/093.nasa7.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/093.nasa7.din</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002116629031</v>
+        <v>0.002116846551</v>
       </c>
       <c r="D41" t="n">
-        <v>6.538917273554982e-07</v>
+        <v>6.280586069978612e-07</v>
       </c>
       <c r="E41" t="n">
         <v>522851</v>
@@ -2583,13 +2583,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M41" t="n">
-        <v>511425.5</v>
+        <v>0.0005114255</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1029070</v>
+        <v>0.00102907</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -2598,17 +2598,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/093.nasa7.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/093.nasa7.din</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002112546267</v>
+        <v>0.002112289047</v>
       </c>
       <c r="D42" t="n">
-        <v>1.721078657586094e-07</v>
+        <v>2.486322269056602e-07</v>
       </c>
       <c r="E42" t="n">
         <v>522851</v>
@@ -2635,13 +2635,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M42" t="n">
-        <v>511425.5</v>
+        <v>0.0005114255</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1029070</v>
+        <v>0.00102907</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2650,17 +2650,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/093.nasa7.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/093.nasa7.din</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002110918587000001</v>
+        <v>0.002110756315</v>
       </c>
       <c r="D43" t="n">
-        <v>1.059382266040841e-07</v>
+        <v>6.781999999983834e-08</v>
       </c>
       <c r="E43" t="n">
         <v>522851</v>
@@ -2687,13 +2687,13 @@
         <v>7.105427357601002e-15</v>
       </c>
       <c r="M43" t="n">
-        <v>511425.5</v>
+        <v>0.0005114255</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1029070</v>
+        <v>0.00102907</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2702,23 +2702,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/094.fpppp.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/094.fpppp.din</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002373308932</v>
+        <v>0.002371880241</v>
       </c>
       <c r="D44" t="n">
-        <v>2.76094625057799e-06</v>
+        <v>2.899728722147058e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>580050.05</v>
+        <v>580136</v>
       </c>
       <c r="F44" t="n">
-        <v>462.58358433909</v>
+        <v>372.3597051239567</v>
       </c>
       <c r="G44" t="n">
         <v>98.8910778015703</v>
@@ -2733,44 +2733,44 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K44" t="n">
-        <v>83.51876818834238</v>
+        <v>83.48722901770711</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08576721246756698</v>
+        <v>0.06916264197109581</v>
       </c>
       <c r="M44" t="n">
-        <v>540025.025</v>
+        <v>0.000540068</v>
       </c>
       <c r="N44" t="n">
-        <v>231.291792169545</v>
+        <v>1.86179852561968e-07</v>
       </c>
       <c r="O44" t="n">
-        <v>1111937.5</v>
+        <v>0.0011120122</v>
       </c>
       <c r="P44" t="n">
-        <v>370.167056881079</v>
+        <v>3.054913419394843e-07</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/094.fpppp.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/094.fpppp.din</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002339637087</v>
+        <v>0.002338089761</v>
       </c>
       <c r="D45" t="n">
-        <v>4.955624663915367e-07</v>
+        <v>6.518489954920672e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>576050.9</v>
+        <v>576087.8</v>
       </c>
       <c r="F45" t="n">
-        <v>68.3289104259683</v>
+        <v>88.96353185435029</v>
       </c>
       <c r="G45" t="n">
         <v>98.8910778015703</v>
@@ -2785,38 +2785,38 @@
         <v>1.4210854715202e-14</v>
       </c>
       <c r="K45" t="n">
-        <v>84.5074146064365</v>
+        <v>84.49957548561525</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01336911050177401</v>
+        <v>0.01754261919764042</v>
       </c>
       <c r="M45" t="n">
-        <v>538025.45</v>
+        <v>0.0005380439</v>
       </c>
       <c r="N45" t="n">
-        <v>34.16445521298415</v>
+        <v>4.448176592715924e-08</v>
       </c>
       <c r="O45" t="n">
-        <v>1108453.6</v>
+        <v>0.0011084842</v>
       </c>
       <c r="P45" t="n">
-        <v>56.6642744593099</v>
+        <v>7.430316278596748e-08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>manualSim/Spec_Benchmark/094.fpppp.din</t>
+          <t>/Users/anishpalakurthi/Desktop/dineroProj/manualSim/Spec_Benchmark/094.fpppp.din</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002338710425</v>
+        <v>0.002336873625</v>
       </c>
       <c r="D46" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>575987</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>537993.5</v>
+        <v>0.0005379935000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.084202172485504e-19</v>
       </c>
       <c r="O46" t="n">
-        <v>1108396</v>
+        <v>0.001108396</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
     </row>
   </sheetData>

--- a/manualSim/simulation_results.xlsx
+++ b/manualSim/simulation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,52 +466,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Mean L1 Instruction Hits</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L1 Instruction Misses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Mean L1 Instruction Hit Rate (%)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>StdDev L1 Instruction Hit Rate (%)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L1 Data Hits</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L1 Data Misses</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Mean L1 Data Hit Rate (%)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>StdDev L1 Data Hit Rate (%)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L2 Hits</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L2 Misses</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Mean L2 Hit Rate (%)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>StdDev L2 Hit Rate (%)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Mean L1 Energy (J)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>StdDev L1 Energy (J)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L1 Instruction Energy (J)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>StdDev L1 Instruction Energy (J)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Mean L1 Data Energy (J)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>StdDev L1 Data Energy (J)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Mean L2 Energy (J)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>StdDev L2 Energy (J)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Mean DRAM Energy (J)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>StdDev DRAM Energy (J)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Mean DRAM Accesses</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>StdDev DRAM Accesses</t>
         </is>
       </c>
     </row>
@@ -525,46 +585,82 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002140413721</v>
+        <v>0.002263448624</v>
       </c>
       <c r="D2" t="n">
-        <v>2.604860056202349e-07</v>
+        <v>1.92119383428486e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>528710</v>
+        <v>558078.05</v>
       </c>
       <c r="F2" t="n">
-        <v>21.39275578320848</v>
+        <v>43.71295574540802</v>
       </c>
       <c r="G2" t="n">
-        <v>99.78983602020342</v>
+        <v>807667</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1701</v>
       </c>
       <c r="I2" t="n">
-        <v>99.474379957195</v>
+        <v>0.9978983602020344</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K2" t="n">
-        <v>72.62279787104015</v>
+        <v>189630</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06551880555508263</v>
+        <v>1002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000514355</v>
+        <v>0.9947437995719499</v>
       </c>
       <c r="N2" t="n">
-        <v>1.069637789160731e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0010346698</v>
+        <v>1996</v>
       </c>
       <c r="P2" t="n">
-        <v>2.004395170617264e-08</v>
+        <v>752.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.7261087505269728</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0004751478619386692</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0004118647625</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.784888321572206e-09</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0001024967625</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.784888321583455e-09</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.001045199025</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.275970219092924e-08</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.000703888074</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.746413701389062e-07</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1294.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.445683229480096</v>
       </c>
     </row>
     <row r="3">
@@ -577,45 +673,81 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002139625155000001</v>
+        <v>0.002262217635</v>
       </c>
       <c r="D3" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E3" t="n">
-        <v>528678.5</v>
+        <v>557778.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99.78983602020342</v>
+        <v>807667</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1701</v>
       </c>
       <c r="I3" t="n">
-        <v>99.474379957195</v>
+        <v>0.9978983602020344</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K3" t="n">
-        <v>72.89617486338797</v>
+        <v>189630</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0005143392499999999</v>
+        <v>0.9947437995719499</v>
       </c>
       <c r="N3" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>744</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7289617486338799</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.000411853625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.000102485625</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.001045142325</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0007027360600000001</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.001034623</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="AA3" t="n">
+        <v>1284</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -629,45 +761,81 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002139625155000001</v>
+        <v>0.002262217635</v>
       </c>
       <c r="D4" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E4" t="n">
-        <v>528678.5</v>
+        <v>557778.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.78983602020342</v>
+        <v>807667</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1701</v>
       </c>
       <c r="I4" t="n">
-        <v>99.474379957195</v>
+        <v>0.9978983602020344</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K4" t="n">
-        <v>72.89617486338797</v>
+        <v>189630</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005143392499999999</v>
+        <v>0.9947437995719499</v>
       </c>
       <c r="N4" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>744</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7289617486338799</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.000411853625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.000102485625</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.001045142325</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0007027360600000001</v>
+      </c>
+      <c r="Z4" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.001034623</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="AA4" t="n">
+        <v>1284</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,45 +849,81 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00220414963</v>
+        <v>0.002291143950000001</v>
       </c>
       <c r="D5" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E5" t="n">
-        <v>542139</v>
+        <v>562789</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>99.66755039346886</v>
+        <v>781572</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2607</v>
       </c>
       <c r="I5" t="n">
-        <v>99.63256928130922</v>
+        <v>0.9966755039346886</v>
       </c>
       <c r="J5" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K5" t="n">
-        <v>72.13306098628539</v>
+        <v>215030</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0005210700000000001</v>
+        <v>0.9963256928130922</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2472</v>
+      </c>
+      <c r="P5" t="n">
+        <v>955</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7213306098628537</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.000402624</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.000118446</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.00105875091</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.00071132304</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.001049988</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="AA5" t="n">
+        <v>1341</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -733,45 +937,81 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00220414963</v>
+        <v>0.002291143950000001</v>
       </c>
       <c r="D6" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E6" t="n">
-        <v>542139</v>
+        <v>562789</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>99.66755039346886</v>
+        <v>781572</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2607</v>
       </c>
       <c r="I6" t="n">
-        <v>99.63256928130922</v>
+        <v>0.9966755039346886</v>
       </c>
       <c r="J6" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K6" t="n">
-        <v>72.13306098628539</v>
+        <v>215030</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0005210700000000001</v>
+        <v>0.9963256928130922</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2472</v>
+      </c>
+      <c r="P6" t="n">
+        <v>955</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.7213306098628537</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.000402624</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.000118446</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.00105875091</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.00071132304</v>
+      </c>
+      <c r="Z6" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.001049988</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AA6" t="n">
+        <v>1341</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -785,45 +1025,81 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00220414963</v>
+        <v>0.002291143950000001</v>
       </c>
       <c r="D7" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E7" t="n">
-        <v>542139</v>
+        <v>562789</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>99.66755039346886</v>
+        <v>781572</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2607</v>
       </c>
       <c r="I7" t="n">
-        <v>99.63256928130922</v>
+        <v>0.9966755039346886</v>
       </c>
       <c r="J7" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K7" t="n">
-        <v>72.13306098628539</v>
+        <v>215030</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005210700000000001</v>
+        <v>0.9963256928130922</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2472</v>
+      </c>
+      <c r="P7" t="n">
+        <v>955</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7213306098628537</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.000402624</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.000118446</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.00105875091</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.00071132304</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.001049988</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="AA7" t="n">
+        <v>1341</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,46 +1113,82 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002371031363</v>
+        <v>0.002856594992</v>
       </c>
       <c r="D8" t="n">
-        <v>4.155182443658887e-07</v>
+        <v>5.980762051577417e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>576540.95</v>
+        <v>692300.5</v>
       </c>
       <c r="F8" t="n">
-        <v>51.56183181385239</v>
+        <v>125.0443921173597</v>
       </c>
       <c r="G8" t="n">
-        <v>99.44133486406785</v>
+        <v>750974</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>4219</v>
       </c>
       <c r="I8" t="n">
-        <v>98.84970609500544</v>
+        <v>0.9944133486406785</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K8" t="n">
-        <v>67.67864574868088</v>
+        <v>241991</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01719295634177339</v>
+        <v>2816</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000538270475</v>
+        <v>0.9884970609500545</v>
       </c>
       <c r="N8" t="n">
-        <v>2.578091590691424e-08</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0010894861</v>
+        <v>5097.9</v>
       </c>
       <c r="P8" t="n">
-        <v>3.993607391818482e-08</v>
+        <v>2435.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6767423486604225</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0003025707614804455</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.000396731625</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.496384886191624e-08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.000141538625</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.496384886190635e-08</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.00111703247</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.926133988269503e-08</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.001201292272</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5.086950019176514e-07</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4252.3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.794637722496424</v>
       </c>
     </row>
     <row r="9">
@@ -889,46 +1201,82 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002369057474000001</v>
+        <v>0.00285447751</v>
       </c>
       <c r="D9" t="n">
-        <v>6.705759940707098e-07</v>
+        <v>5.491998515658989e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>576397.4</v>
+        <v>691797.8</v>
       </c>
       <c r="F9" t="n">
-        <v>99.09813318120578</v>
+        <v>110.8979711266171</v>
       </c>
       <c r="G9" t="n">
-        <v>99.44133486406785</v>
+        <v>750974</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>4219</v>
       </c>
       <c r="I9" t="n">
-        <v>98.84970609500544</v>
+        <v>0.9944133486406785</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K9" t="n">
-        <v>67.75118919709116</v>
+        <v>241991</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02716915338697028</v>
+        <v>2816</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0005381987</v>
+        <v>0.9884970609500545</v>
       </c>
       <c r="N9" t="n">
-        <v>4.954906659059533e-08</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0010893556</v>
+        <v>5101</v>
       </c>
       <c r="P9" t="n">
-        <v>8.041790845329612e-08</v>
+        <v>2429.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6773876623875691</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0003067739273032377</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00039670845</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.3443229299733e-08</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00014151545</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.344322929973534e-08</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.00111694427</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.583534795857691e-08</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.00119930934</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.444605077618882e-07</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4241</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.756809750418044</v>
       </c>
     </row>
     <row r="10">
@@ -941,46 +1289,82 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00236645568</v>
+        <v>0.002851138320000001</v>
       </c>
       <c r="D10" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E10" t="n">
-        <v>576045.5</v>
+        <v>691095.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>99.44133486406785</v>
+        <v>750974</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>4219</v>
       </c>
       <c r="I10" t="n">
-        <v>98.84970609500544</v>
+        <v>0.9944133486406785</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K10" t="n">
-        <v>67.87516600265603</v>
+        <v>241991</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2816</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0005380227500000001</v>
+        <v>0.9884970609500545</v>
       </c>
       <c r="N10" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001089073</v>
+        <v>5111</v>
       </c>
       <c r="P10" t="n">
+        <v>2419</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6787516600265605</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0003966078750000001</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.000141414875</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.710505431213761e-20</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.00111662027</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0011964953</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2.168404344971009e-19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4225</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -993,46 +1377,82 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002180372559</v>
+        <v>0.003103090282</v>
       </c>
       <c r="D11" t="n">
-        <v>1.367118163219272e-06</v>
+        <v>1.25197670766711e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>537370.4</v>
+        <v>757310.65</v>
       </c>
       <c r="F11" t="n">
-        <v>208.285357142551</v>
+        <v>271.8991586967492</v>
       </c>
       <c r="G11" t="n">
-        <v>99.67908559603586</v>
+        <v>739872</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="I11" t="n">
-        <v>98.12724782637372</v>
+        <v>0.9967908559603587</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K11" t="n">
-        <v>82.19474806162036</v>
+        <v>252922</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07125459953373695</v>
+        <v>4827</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00051868595</v>
+        <v>0.981272478263737</v>
       </c>
       <c r="N11" t="n">
-        <v>1.041426785712779e-07</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0010474708</v>
+        <v>6270.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.742284706929472e-07</v>
+        <v>1358.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8219619486024369</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0006110564585133141</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0003804630375</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.679644386690291e-08</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0001382105375</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.679644386690245e-08</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001095686565</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.225488066037478e-07</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.001488730142</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.079615098503151e-06</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5337.8</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5.827520913733387</v>
       </c>
     </row>
     <row r="12">
@@ -1045,46 +1465,82 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002171513805</v>
+        <v>0.003093063805</v>
       </c>
       <c r="D12" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E12" t="n">
-        <v>536352.5</v>
+        <v>755102.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>99.67908559603586</v>
+        <v>739872</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="I12" t="n">
-        <v>98.12724782637372</v>
+        <v>0.9967908559603587</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K12" t="n">
-        <v>82.66123735715225</v>
+        <v>252922</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4827</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000518177</v>
+        <v>0.981272478263737</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001046569</v>
+        <v>6293</v>
       </c>
       <c r="P12" t="n">
+        <v>1320</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8266123735715223</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00038021475</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.00013796225</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.001094807265</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.00148007954</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5291</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1097,46 +1553,82 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002171513805</v>
+        <v>0.003093063805</v>
       </c>
       <c r="D13" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E13" t="n">
-        <v>536352.5</v>
+        <v>755102.5</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.67908559603586</v>
+        <v>739872</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="I13" t="n">
-        <v>98.12724782637372</v>
+        <v>0.9967908559603587</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K13" t="n">
-        <v>82.66123735715225</v>
+        <v>252922</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4827</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000518177</v>
+        <v>0.981272478263737</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001046569</v>
+        <v>6293</v>
       </c>
       <c r="P13" t="n">
+        <v>1320</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8266123735715223</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.00038021475</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.00013796225</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.001094807265</v>
+      </c>
+      <c r="X13" t="n">
         <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.00148007954</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5291</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1149,45 +1641,81 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002087099515</v>
+        <v>0.002394212635</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>517289</v>
+        <v>590189</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>99.97180935851351</v>
+        <v>769542</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I14" t="n">
-        <v>99.10702264149303</v>
+        <v>0.9997180935851351</v>
       </c>
       <c r="J14" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>45.28089887640449</v>
+        <v>228185</v>
       </c>
       <c r="L14" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2056</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0005086444999999999</v>
+        <v>0.9910702264149303</v>
       </c>
       <c r="N14" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001020376</v>
+        <v>1209</v>
       </c>
       <c r="P14" t="n">
+        <v>1461</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.452808988764045</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.00038920175</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.00011944275</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.001039559255</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0008460088800000003</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2522</v>
+      </c>
+      <c r="AB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1201,45 +1729,81 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002087099515</v>
+        <v>0.002394212635</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>517289</v>
+        <v>590189</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>99.97180935851351</v>
+        <v>769542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I15" t="n">
-        <v>99.10702264149303</v>
+        <v>0.9997180935851351</v>
       </c>
       <c r="J15" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>45.28089887640449</v>
+        <v>228185</v>
       </c>
       <c r="L15" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2056</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0005086444999999999</v>
+        <v>0.9910702264149303</v>
       </c>
       <c r="N15" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001020376</v>
+        <v>1209</v>
       </c>
       <c r="P15" t="n">
+        <v>1461</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.452808988764045</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.00038920175</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.00011944275</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.001039559255</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0008460088800000003</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2522</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1253,45 +1817,81 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002087099515</v>
+        <v>0.002394212635</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>517289</v>
+        <v>590189</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97180935851351</v>
+        <v>769542</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I16" t="n">
-        <v>99.10702264149303</v>
+        <v>0.9997180935851351</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.28089887640449</v>
+        <v>228185</v>
       </c>
       <c r="L16" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2056</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0005086444999999999</v>
+        <v>0.9910702264149303</v>
       </c>
       <c r="N16" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001020376</v>
+        <v>1209</v>
       </c>
       <c r="P16" t="n">
+        <v>1461</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.452808988764045</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.00038920175</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.00011944275</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.001039559255</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0008460088800000003</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2522</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1305,46 +1905,82 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002209411108</v>
+        <v>0.004849164053</v>
       </c>
       <c r="D17" t="n">
-        <v>2.832329224874118e-06</v>
+        <v>4.07860050372219e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>528884.6</v>
+        <v>1176128.55</v>
       </c>
       <c r="F17" t="n">
-        <v>352.2427997844669</v>
+        <v>948.6779340218682</v>
       </c>
       <c r="G17" t="n">
-        <v>99.98294546987312</v>
+        <v>721093</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>123</v>
       </c>
       <c r="I17" t="n">
-        <v>95.38388142791551</v>
+        <v>0.999829454698731</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K17" t="n">
-        <v>62.62056853380248</v>
+        <v>265915</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06983627981588696</v>
+        <v>12869</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005144423</v>
+        <v>0.9538388142791552</v>
       </c>
       <c r="N17" t="n">
-        <v>1.761213998922548e-07</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001043551</v>
+        <v>10112.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.099974193440727e-07</v>
+        <v>6038.6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6261146368277755</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.001174581416960815</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0003678213875</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8.222580286169204e-08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0001466053875</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.222580286169458e-08</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0011713658</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.239312427043409e-07</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.003163371478</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.665530123083965e-06</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15825.2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="18">
@@ -1357,46 +1993,82 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0022159122</v>
+        <v>0.004857098961</v>
       </c>
       <c r="D18" t="n">
-        <v>2.393917334520857e-06</v>
+        <v>3.711179182608775e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>530031.2</v>
+        <v>1177729.35</v>
       </c>
       <c r="F18" t="n">
-        <v>271.9519442842798</v>
+        <v>797.6515859070299</v>
       </c>
       <c r="G18" t="n">
-        <v>99.98294546987312</v>
+        <v>721093</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>123</v>
       </c>
       <c r="I18" t="n">
-        <v>95.38388142791551</v>
+        <v>0.999829454698731</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K18" t="n">
-        <v>62.59834637689183</v>
+        <v>265915</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08512013515073281</v>
+        <v>12869</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0005150155999999999</v>
+        <v>0.9538388142791552</v>
       </c>
       <c r="N18" t="n">
-        <v>1.359759721421416e-07</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0010445536</v>
+        <v>10110.1</v>
       </c>
       <c r="P18" t="n">
-        <v>2.585115858138618e-07</v>
+        <v>6049.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.625652849672963</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0009886339307883271</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0003681278375</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.239513645800352e-07</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0001469118375</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.239513645800238e-07</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0011723918</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.394037437255181e-07</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.003169667486</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.183160613667478e-06</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15834.9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>17.73386590678975</v>
       </c>
     </row>
     <row r="19">
@@ -1409,46 +2081,82 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002194401031000001</v>
+        <v>0.004824324237</v>
       </c>
       <c r="D19" t="n">
-        <v>4.967472645107269e-06</v>
+        <v>6.106221457253571e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>530762.45</v>
+        <v>1169336.75</v>
       </c>
       <c r="F19" t="n">
-        <v>589.0032448976831</v>
+        <v>1350.489582521835</v>
       </c>
       <c r="G19" t="n">
-        <v>99.98294546987312</v>
+        <v>721093</v>
       </c>
       <c r="H19" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>123</v>
       </c>
       <c r="I19" t="n">
-        <v>95.38388142791551</v>
+        <v>0.999829454698731</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K19" t="n">
-        <v>62.3551950069881</v>
+        <v>265915</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1424878905089151</v>
+        <v>12869</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005153812250000001</v>
+        <v>0.9538388142791552</v>
       </c>
       <c r="N19" t="n">
-        <v>2.945016224488577e-07</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0010452979</v>
+        <v>10087</v>
       </c>
       <c r="P19" t="n">
-        <v>5.464186032703954e-07</v>
+        <v>6096.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6232897407854685</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.001081214653788621</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0003683384375000001</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.527783550809828e-07</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0001471224375</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.527783550809788e-07</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0011731964</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.105697699628999e-07</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.003135666962</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5.358682343244157e-06</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15673.3</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>28.40792143047428</v>
       </c>
     </row>
     <row r="20">
@@ -1461,46 +2169,82 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002195873494</v>
+        <v>0.00240011276</v>
       </c>
       <c r="D20" t="n">
-        <v>1.687225667893194e-07</v>
+        <v>2.99809674993934e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>538493</v>
+        <v>587007.5</v>
       </c>
       <c r="F20" t="n">
-        <v>22.0454076850486</v>
+        <v>68.96557112066861</v>
       </c>
       <c r="G20" t="n">
-        <v>99.85426970254105</v>
+        <v>767423</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I20" t="n">
-        <v>99.37915033893987</v>
+        <v>0.9985426970254105</v>
       </c>
       <c r="J20" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K20" t="n">
-        <v>53.26814591951862</v>
+        <v>230020</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03008649868371691</v>
+        <v>1437</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0005192465000000001</v>
+        <v>0.9937915033893987</v>
       </c>
       <c r="N20" t="n">
-        <v>1.102270384251195e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0010399204</v>
+        <v>1416.2</v>
       </c>
       <c r="P20" t="n">
-        <v>1.763632614810411e-08</v>
+        <v>1242.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5326062429484769</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0003278600183182214</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.000393895875</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.624999999993699e-09</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.000125352875</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.625000000007253e-09</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.00105429717</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.799999999995815e-08</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.00082656684</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.769482816700274e-07</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2111</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.788854381999832</v>
       </c>
     </row>
     <row r="21">
@@ -1513,45 +2257,81 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002195641429999999</v>
+        <v>0.002399751589999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E21" t="n">
-        <v>538475</v>
+        <v>586925</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>99.85426970254105</v>
+        <v>767423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I21" t="n">
-        <v>99.37915033893987</v>
+        <v>0.9985426970254105</v>
       </c>
       <c r="J21" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K21" t="n">
-        <v>53.32831891688606</v>
+        <v>230020</v>
       </c>
       <c r="L21" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>1437</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0005192375000000001</v>
+        <v>0.9937915033893987</v>
       </c>
       <c r="N21" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1418</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1241</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5332831891688606</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.00039389025</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.00012534725</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.710505431213761e-20</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.00105427917</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0008262349199999999</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O21" t="n">
-        <v>0.001039906</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="AA21" t="n">
+        <v>2108</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1565,45 +2345,81 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002195641429999999</v>
+        <v>0.002399751589999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="E22" t="n">
-        <v>538475</v>
+        <v>586925</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.85426970254105</v>
+        <v>767423</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37915033893987</v>
+        <v>0.9985426970254105</v>
       </c>
       <c r="J22" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K22" t="n">
-        <v>53.32831891688606</v>
+        <v>230020</v>
       </c>
       <c r="L22" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>1437</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0005192375000000001</v>
+        <v>0.9937915033893987</v>
       </c>
       <c r="N22" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1418</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1241</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5332831891688606</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.00039389025</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.00012534725</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.710505431213761e-20</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.00105427917</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0008262349199999999</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O22" t="n">
-        <v>0.001039906</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="AA22" t="n">
+        <v>2108</v>
+      </c>
+      <c r="AB22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1617,45 +2433,81 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002120647545</v>
+        <v>0.002137920025000001</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>522963.5</v>
+        <v>527063.5</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>99.94381343644272</v>
+        <v>827135</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="I23" t="n">
-        <v>99.78596287703017</v>
+        <v>0.9994381343644273</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.49122807017544</v>
+        <v>172031</v>
       </c>
       <c r="L23" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>369</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00051148175</v>
+        <v>0.9978596287703017</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001022545</v>
+        <v>141</v>
       </c>
       <c r="P23" t="n">
+        <v>714</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1649122807017544</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.000419540875</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9.194087499999999e-05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.001028122975</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.0005983153000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>775</v>
+      </c>
+      <c r="AB23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1669,45 +2521,81 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002120647545</v>
+        <v>0.002137920025000001</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>522963.5</v>
+        <v>527063.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>99.94381343644272</v>
+        <v>827135</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="I24" t="n">
-        <v>99.78596287703017</v>
+        <v>0.9994381343644273</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16.49122807017544</v>
+        <v>172031</v>
       </c>
       <c r="L24" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>369</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00051148175</v>
+        <v>0.9978596287703017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001022545</v>
+        <v>141</v>
       </c>
       <c r="P24" t="n">
+        <v>714</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1649122807017544</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.000419540875</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9.194087499999999e-05</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.001028122975</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0005983153000000001</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>775</v>
+      </c>
+      <c r="AB24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1721,45 +2609,81 @@
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002120647545</v>
+        <v>0.002137920025000001</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>522963.5</v>
+        <v>527063.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.94381343644272</v>
+        <v>827135</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="I25" t="n">
-        <v>99.78596287703017</v>
+        <v>0.9994381343644273</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.49122807017544</v>
+        <v>172031</v>
       </c>
       <c r="L25" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>369</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00051148175</v>
+        <v>0.9978596287703017</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001022545</v>
+        <v>141</v>
       </c>
       <c r="P25" t="n">
+        <v>714</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1649122807017544</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.000419540875</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>9.194087499999999e-05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.001028122975</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.0005983153000000001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>775</v>
+      </c>
+      <c r="AB25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,46 +2697,82 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002284027786</v>
+        <v>0.004415709727</v>
       </c>
       <c r="D26" t="n">
-        <v>2.383083994858139e-06</v>
+        <v>5.520687356885541e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>528679.85</v>
+        <v>1076615</v>
       </c>
       <c r="F26" t="n">
-        <v>172.1454399628407</v>
+        <v>1352.581661120688</v>
       </c>
       <c r="G26" t="n">
-        <v>99.98570370274101</v>
+        <v>615456</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>88</v>
       </c>
       <c r="I26" t="n">
-        <v>97.31542751316145</v>
+        <v>0.9998570370274098</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K26" t="n">
-        <v>42.19541190898472</v>
+        <v>374135</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02947530563395128</v>
+        <v>10321</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0005143399249999999</v>
+        <v>0.9731542751316147</v>
       </c>
       <c r="N26" t="n">
-        <v>8.607271998144158e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0010491355</v>
+        <v>6170.6</v>
       </c>
       <c r="P26" t="n">
-        <v>1.497492904824835e-07</v>
+        <v>8428.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4226728224561963</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0005951066083403256</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.00031487075</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6.63711863311234e-08</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.00019932675</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6.637118633111784e-08</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.001150756135</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.141470522794782e-07</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.002750756092000001</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5.440619588077826e-06</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15202.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>28.52297319705644</v>
       </c>
     </row>
     <row r="27">
@@ -1825,46 +2785,82 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002291945165</v>
+        <v>0.004430658818999999</v>
       </c>
       <c r="D27" t="n">
-        <v>1.687874126207215e-06</v>
+        <v>4.704363931645039e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>528068.3</v>
+        <v>1080427</v>
       </c>
       <c r="F27" t="n">
-        <v>149.8331071559286</v>
+        <v>1110.566094386102</v>
       </c>
       <c r="G27" t="n">
-        <v>99.98570370274101</v>
+        <v>615456</v>
       </c>
       <c r="H27" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>88</v>
       </c>
       <c r="I27" t="n">
-        <v>97.31542751316145</v>
+        <v>0.9998570370274098</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K27" t="n">
-        <v>42.46454402909774</v>
+        <v>374135</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03034106179046232</v>
+        <v>10321</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0005140341500000001</v>
+        <v>0.9731542751316147</v>
       </c>
       <c r="N27" t="n">
-        <v>7.491655357795904e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O27" t="n">
-        <v>0.001048528</v>
+        <v>6194.1</v>
       </c>
       <c r="P27" t="n">
-        <v>1.327004144680994e-07</v>
+        <v>8385.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4248354687119446</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0005298923976666065</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.00031477625</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.054566340321995e-08</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.00019923225</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7.05456634032166e-08</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.001150351135</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.375659066448616e-07</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.002766299184</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4.448727151137054e-06</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15263.1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>24.06428889454247</v>
       </c>
     </row>
     <row r="28">
@@ -1877,46 +2873,82 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002294935551</v>
+        <v>0.004434204216000001</v>
       </c>
       <c r="D28" t="n">
-        <v>4.013733155321184e-06</v>
+        <v>4.027545310646337e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>527770.4</v>
+        <v>1081360.15</v>
       </c>
       <c r="F28" t="n">
-        <v>281.1963548839138</v>
+        <v>934.9744662288912</v>
       </c>
       <c r="G28" t="n">
-        <v>99.98570370274101</v>
+        <v>615456</v>
       </c>
       <c r="H28" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>88</v>
       </c>
       <c r="I28" t="n">
-        <v>97.31542751316145</v>
+        <v>0.9998570370274098</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K28" t="n">
-        <v>42.57008136399733</v>
+        <v>374135</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04652419837881408</v>
+        <v>10321</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005138851999999999</v>
+        <v>0.9731542751316147</v>
       </c>
       <c r="N28" t="n">
-        <v>1.405981774419596e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001048267</v>
+        <v>6204</v>
       </c>
       <c r="P28" t="n">
-        <v>2.266856854765854e-07</v>
+        <v>8371.700000000001</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.4256400286554847</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0006481703886015076</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0003147320375</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.904043763321492e-08</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0001991880375</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.904043763321778e-08</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.001150186435</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.619432953904057e-07</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.002770097706</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.748900944981672e-06</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15275.4</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>20.90550166822122</v>
       </c>
     </row>
     <row r="29">
@@ -1929,46 +2961,82 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002099375479999999</v>
+        <v>0.00210485212</v>
       </c>
       <c r="D29" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>518667</v>
+        <v>519967</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99.95573732981065</v>
+        <v>799417</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>354</v>
       </c>
       <c r="I29" t="n">
-        <v>99.88413382543162</v>
+        <v>0.9995573732981067</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K29" t="n">
-        <v>9.932659932659933</v>
+        <v>199999</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0005093340000000001</v>
+        <v>0.9988413382543163</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>535</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.09932659932659935</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.000404552</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.000104782</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0010229664</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.00057255172</v>
+      </c>
+      <c r="Z29" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O29" t="n">
-        <v>0.001018002</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.168404344971009e-19</v>
+      <c r="AA29" t="n">
+        <v>553</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1981,46 +3049,82 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002099375479999999</v>
+        <v>0.00210485212</v>
       </c>
       <c r="D30" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>518667</v>
+        <v>519967</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>99.95573732981065</v>
+        <v>799417</v>
       </c>
       <c r="H30" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>354</v>
       </c>
       <c r="I30" t="n">
-        <v>99.88413382543162</v>
+        <v>0.9995573732981067</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K30" t="n">
-        <v>9.932659932659933</v>
+        <v>199999</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0005093340000000001</v>
+        <v>0.9988413382543163</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>535</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.09932659932659935</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.000404552</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.000104782</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.0010229664</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.00057255172</v>
+      </c>
+      <c r="Z30" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O30" t="n">
-        <v>0.001018002</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.168404344971009e-19</v>
+      <c r="AA30" t="n">
+        <v>553</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2033,46 +3137,82 @@
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002099375479999999</v>
+        <v>0.00210485212</v>
       </c>
       <c r="D31" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>518667</v>
+        <v>519967</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.95573732981065</v>
+        <v>799417</v>
       </c>
       <c r="H31" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>354</v>
       </c>
       <c r="I31" t="n">
-        <v>99.88413382543162</v>
+        <v>0.9995573732981067</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K31" t="n">
-        <v>9.932659932659933</v>
+        <v>199999</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0005093340000000001</v>
+        <v>0.9988413382543163</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>535</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.09932659932659935</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.000404552</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.000104782</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0010229664</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.00057255172</v>
+      </c>
+      <c r="Z31" t="n">
         <v>1.084202172485504e-19</v>
       </c>
-      <c r="O31" t="n">
-        <v>0.001018002</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.168404344971009e-19</v>
+      <c r="AA31" t="n">
+        <v>553</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2085,46 +3225,82 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002535092942</v>
+        <v>0.003562082750999999</v>
       </c>
       <c r="D32" t="n">
-        <v>2.103945698139681e-06</v>
+        <v>2.199814492720529e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>618651.05</v>
+        <v>865903.8</v>
       </c>
       <c r="F32" t="n">
-        <v>352.9816177933349</v>
+        <v>443.8632221754805</v>
       </c>
       <c r="G32" t="n">
-        <v>98.36975555313238</v>
+        <v>766807</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>12708</v>
       </c>
       <c r="I32" t="n">
-        <v>97.50685987708914</v>
+        <v>0.983697555531324</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.04343685454543</v>
+        <v>214988</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04502402763094185</v>
+        <v>5497</v>
       </c>
       <c r="M32" t="n">
-        <v>0.000559325525</v>
+        <v>0.9750685987708915</v>
       </c>
       <c r="N32" t="n">
-        <v>1.764908088966897e-07</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0011702719</v>
+        <v>16183.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.89191441782088e-07</v>
+        <v>2618.2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.860744468923753</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0004892460558178396</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.00041936345</v>
+      </c>
+      <c r="T32" t="n">
+        <v>9.018992460357938e-08</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.00013984845</v>
+      </c>
+      <c r="V32" t="n">
+        <v>9.018992460358299e-08</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.001223164055</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.938524119349548e-07</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.001779706796</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.773905300737304e-06</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6971.4</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.329523031752482</v>
       </c>
     </row>
     <row r="33">
@@ -2137,46 +3313,82 @@
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00247423893</v>
+        <v>0.003497094805000001</v>
       </c>
       <c r="D33" t="n">
-        <v>1.782711583494269e-06</v>
+        <v>2.184367367994657e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>609184.85</v>
+        <v>852625.9</v>
       </c>
       <c r="F33" t="n">
-        <v>235.6131416114135</v>
+        <v>469.0447100224028</v>
       </c>
       <c r="G33" t="n">
-        <v>98.36975555313238</v>
+        <v>766807</v>
       </c>
       <c r="H33" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>12708</v>
       </c>
       <c r="I33" t="n">
-        <v>97.50685987708914</v>
+        <v>0.983697555531324</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>87.30924711211122</v>
+        <v>214988</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03591337470294263</v>
+        <v>5497</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0005545924250000001</v>
+        <v>0.9750685987708915</v>
       </c>
       <c r="N33" t="n">
-        <v>1.178065708057255e-07</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0011625499</v>
+        <v>16389.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.859954031690434e-07</v>
+        <v>2384.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.8729959648498034</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0003693156117704906</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.000417072725</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.346994367416226e-08</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.000137557725</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6.346994367415763e-08</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.001215686855</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.133892218459114e-07</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0017267775</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.857182695202597e-06</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6682.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.372833082905082</v>
       </c>
     </row>
     <row r="34">
@@ -2189,46 +3401,82 @@
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002471007495</v>
+        <v>0.003493466175</v>
       </c>
       <c r="D34" t="n">
-        <v>1.036645349422887e-06</v>
+        <v>1.312908719195644e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>608691.2</v>
+        <v>851882</v>
       </c>
       <c r="F34" t="n">
-        <v>191.079983253087</v>
+        <v>267.9484092134156</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36975555313238</v>
+        <v>766807</v>
       </c>
       <c r="H34" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>12708</v>
       </c>
       <c r="I34" t="n">
-        <v>97.50685987708914</v>
+        <v>0.983697555531324</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>87.38932397677763</v>
+        <v>214988</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02752459645234941</v>
+        <v>5497</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0005543455999999999</v>
+        <v>0.9750685987708915</v>
       </c>
       <c r="N34" t="n">
-        <v>9.553999162652892e-08</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.001162135</v>
+        <v>16402.2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.570751412541164e-07</v>
+        <v>2368.8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.873805360151086</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0003229757286701251</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.00041694425</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5.047979174877011e-08</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.00013742925</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.047979174877857e-08</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.001215258455</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.673516059080346e-07</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.00172383422</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.062256574204164e-06</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6665.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6.135959582656978</v>
       </c>
     </row>
     <row r="35">
@@ -2241,46 +3489,82 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002159366669</v>
+        <v>0.002708989054</v>
       </c>
       <c r="D35" t="n">
-        <v>6.05117609877504e-07</v>
+        <v>1.09682300392953e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>530992.4</v>
+        <v>662889.35</v>
       </c>
       <c r="F35" t="n">
-        <v>59.92945853251137</v>
+        <v>252.8156492387289</v>
       </c>
       <c r="G35" t="n">
-        <v>99.93475143824922</v>
+        <v>736700</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="I35" t="n">
-        <v>98.80716386562617</v>
+        <v>0.9993475143824921</v>
       </c>
       <c r="J35" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K35" t="n">
-        <v>40.79116527300112</v>
+        <v>259684</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0549885451648101</v>
+        <v>3135</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0005154961999999999</v>
+        <v>0.9880716386562616</v>
       </c>
       <c r="N35" t="n">
-        <v>2.996472926626524e-08</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0010355086</v>
+        <v>1866.7</v>
       </c>
       <c r="P35" t="n">
-        <v>5.723320714410909e-08</v>
+        <v>2710.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4078172543734874</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0009115363407991516</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0003763465875</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.216592613111911e-08</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0001391655875</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.216592613110858e-08</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.001065885805</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8.040279845874971e-08</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.001127591074</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>9.949939291895553e-07</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4386.6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6.514598989960932</v>
       </c>
     </row>
     <row r="36">
@@ -2293,46 +3577,82 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002154514295000001</v>
+        <v>0.002701987787</v>
       </c>
       <c r="D36" t="n">
-        <v>3.16654768351877e-07</v>
+        <v>4.468464967032799e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>530811.5</v>
+        <v>661201.5</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>111.3552872566004</v>
       </c>
       <c r="G36" t="n">
-        <v>99.93475143824922</v>
+        <v>736700</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="I36" t="n">
-        <v>98.80716386562617</v>
+        <v>0.9993475143824921</v>
       </c>
       <c r="J36" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K36" t="n">
-        <v>41.01947057536643</v>
+        <v>259684</v>
       </c>
       <c r="L36" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>3135</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0005154057499999999</v>
+        <v>0.9880716386562616</v>
       </c>
       <c r="N36" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.001035325</v>
+        <v>1875</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2696</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4101947057536645</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.000376293375</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.000139112375</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.710505431213761e-20</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.001065681505</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.001120900532</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4.468464967033208e-07</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>4348.8</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2.227105745132009</v>
       </c>
     </row>
     <row r="37">
@@ -2345,45 +3665,81 @@
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002152818795</v>
+        <v>0.002699218955</v>
       </c>
       <c r="D37" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="E37" t="n">
-        <v>530811.5</v>
+        <v>660511.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.93475143824922</v>
+        <v>736700</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="I37" t="n">
-        <v>98.80716386562617</v>
+        <v>0.9993475143824921</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K37" t="n">
-        <v>41.01947057536643</v>
+        <v>259684</v>
       </c>
       <c r="L37" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>3135</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0005154057499999999</v>
+        <v>0.9880716386562616</v>
       </c>
       <c r="N37" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.001035325</v>
+        <v>1875</v>
       </c>
       <c r="P37" t="n">
+        <v>2696</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4101947057536645</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.000376293375</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.000139112375</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.710505431213761e-20</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.001065681505</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0011181317</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4335</v>
+      </c>
+      <c r="AB37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2397,46 +3753,82 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002398494797</v>
+        <v>0.004822621014</v>
       </c>
       <c r="D38" t="n">
-        <v>5.983912899516144e-06</v>
+        <v>5.500493751332536e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>566382.2</v>
+        <v>1161501.35</v>
       </c>
       <c r="F38" t="n">
-        <v>778.9555892347137</v>
+        <v>1198.202571562922</v>
       </c>
       <c r="G38" t="n">
-        <v>99.88152608296114</v>
+        <v>747801</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>887</v>
       </c>
       <c r="I38" t="n">
-        <v>95.25092315528107</v>
+        <v>0.998815260829611</v>
       </c>
       <c r="J38" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K38" t="n">
-        <v>60.14559817597452</v>
+        <v>239377</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1243659882150458</v>
+        <v>11935</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0005331911</v>
+        <v>0.952509231552811</v>
       </c>
       <c r="N38" t="n">
-        <v>3.894777946173502e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0010782136</v>
+        <v>9601.299999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>6.605558568357403e-07</v>
+        <v>6367</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6012732035956934</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.001247584836921947</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0003910393375</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.586561538555978e-07</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0001423513375</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.586561538555923e-07</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.001196302525</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.394965152806802e-07</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.003092927814</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4.74500256711459e-06</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>15115.1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>27.04976894540876</v>
       </c>
     </row>
     <row r="39">
@@ -2449,46 +3841,82 @@
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002375512730999999</v>
+        <v>0.004792949744</v>
       </c>
       <c r="D39" t="n">
-        <v>4.972347432557885e-06</v>
+        <v>4.167151215524702e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>563225.9</v>
+        <v>1155044.05</v>
       </c>
       <c r="F39" t="n">
-        <v>561.4615213885987</v>
+        <v>970.4403240282218</v>
       </c>
       <c r="G39" t="n">
-        <v>99.88152608296114</v>
+        <v>747801</v>
       </c>
       <c r="H39" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>887</v>
       </c>
       <c r="I39" t="n">
-        <v>95.25092315528107</v>
+        <v>0.998815260829611</v>
       </c>
       <c r="J39" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K39" t="n">
-        <v>60.9151533471514</v>
+        <v>239377</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1545169970604658</v>
+        <v>11935</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00053161295</v>
+        <v>0.952509231552811</v>
       </c>
       <c r="N39" t="n">
-        <v>2.807307606943137e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0010749574</v>
+        <v>9646.4</v>
       </c>
       <c r="P39" t="n">
-        <v>5.323132912111074e-07</v>
+        <v>6196.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6088798275239751</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.001201474606014444</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0003901175125000001</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8.55184272905543e-08</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0001414295125</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.551842729055164e-08</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.001192675525</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.446999999999897e-07</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.003068727193999999</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3.737948247946154e-06</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>15014.6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>21.57405849625888</v>
       </c>
     </row>
     <row r="40">
@@ -2501,46 +3929,82 @@
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002367848288999999</v>
+        <v>0.004785071507</v>
       </c>
       <c r="D40" t="n">
-        <v>6.787230313614235e-06</v>
+        <v>6.138801947264291e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>563464.4</v>
+        <v>1152880.7</v>
       </c>
       <c r="F40" t="n">
-        <v>856.5328890357918</v>
+        <v>1336.42039044606</v>
       </c>
       <c r="G40" t="n">
-        <v>99.88152608296114</v>
+        <v>747801</v>
       </c>
       <c r="H40" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>887</v>
       </c>
       <c r="I40" t="n">
-        <v>95.25092315528107</v>
+        <v>0.998815260829611</v>
       </c>
       <c r="J40" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="K40" t="n">
-        <v>60.96479571028972</v>
+        <v>239377</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1570967975103601</v>
+        <v>11935</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005317322</v>
+        <v>0.952509231552811</v>
       </c>
       <c r="N40" t="n">
-        <v>4.282664445179057e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0010751644</v>
+        <v>9647.6</v>
       </c>
       <c r="P40" t="n">
-        <v>7.331349398303326e-07</v>
+        <v>6206</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.6085444083564445</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.001464307297140376</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.000390290425</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.624004425794529e-07</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.000141602425</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.624004425794455e-07</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.001193286625</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.631584146578815e-07</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.003059892032</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>5.345821508911142e-06</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>14956.3</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>31.62925860654973</v>
       </c>
     </row>
     <row r="41">
@@ -2553,46 +4017,82 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002116846551</v>
+        <v>0.002605593583</v>
       </c>
       <c r="D41" t="n">
-        <v>6.280586069978612e-07</v>
+        <v>1.288008788640917e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>522851</v>
+        <v>640436</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>320.9750769140807</v>
       </c>
       <c r="G41" t="n">
-        <v>99.94233913802614</v>
+        <v>802508</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>463</v>
       </c>
       <c r="I41" t="n">
-        <v>98.54082393962311</v>
+        <v>0.9994233913802615</v>
       </c>
       <c r="J41" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K41" t="n">
-        <v>35.52509293680298</v>
+        <v>194154</v>
       </c>
       <c r="L41" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2875</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005114255</v>
+        <v>0.985408239396231</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.00102907</v>
+        <v>1529</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2775</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3552509293680298</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.00040719825</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.00010422725</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.001056733435</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.001037434648</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.288008788640883e-06</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4160.7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>6.419501538281613</v>
       </c>
     </row>
     <row r="42">
@@ -2605,46 +4105,82 @@
         <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002112289047</v>
+        <v>0.002599032655</v>
       </c>
       <c r="D42" t="n">
-        <v>2.486322269056602e-07</v>
+        <v>3.357349354475992e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>522851</v>
+        <v>638801</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>83.66600265340756</v>
       </c>
       <c r="G42" t="n">
-        <v>99.94233913802614</v>
+        <v>802508</v>
       </c>
       <c r="H42" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>463</v>
       </c>
       <c r="I42" t="n">
-        <v>98.54082393962311</v>
+        <v>0.9994233913802615</v>
       </c>
       <c r="J42" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K42" t="n">
-        <v>35.52509293680298</v>
+        <v>194154</v>
       </c>
       <c r="L42" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2875</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0005114255</v>
+        <v>0.985408239396231</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.00102907</v>
+        <v>1529</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2775</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3552509293680298</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.00040719825</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.00010422725</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.001056733435</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.00103087372</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.357349354475991e-07</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4128</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.673320053068151</v>
       </c>
     </row>
     <row r="43">
@@ -2657,46 +4193,82 @@
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002110756315</v>
+        <v>0.002596564783</v>
       </c>
       <c r="D43" t="n">
-        <v>6.781999999983834e-08</v>
+        <v>1.284722846999539e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>522851</v>
+        <v>638186</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>32.01562118716424</v>
       </c>
       <c r="G43" t="n">
-        <v>99.94233913802614</v>
+        <v>802508</v>
       </c>
       <c r="H43" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>463</v>
       </c>
       <c r="I43" t="n">
-        <v>98.54082393962311</v>
+        <v>0.9994233913802615</v>
       </c>
       <c r="J43" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K43" t="n">
-        <v>35.52509293680298</v>
+        <v>194154</v>
       </c>
       <c r="L43" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2875</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0005114255</v>
+        <v>0.985408239396231</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.00102907</v>
+        <v>1529</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2775</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3552509293680298</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.00040719825</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.00010422725</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.355252715606881e-20</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.001056733435</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.001028405848</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.28472284699815e-07</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4115.7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6403124237432849</v>
       </c>
     </row>
     <row r="44">
@@ -2709,46 +4281,82 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002371880241</v>
+        <v>0.003393516581</v>
       </c>
       <c r="D44" t="n">
-        <v>2.899728722147058e-06</v>
+        <v>4.426468467587188e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>580136</v>
+        <v>826094.2</v>
       </c>
       <c r="F44" t="n">
-        <v>372.3597051239567</v>
+        <v>946.2143308997174</v>
       </c>
       <c r="G44" t="n">
-        <v>98.8910778015703</v>
+        <v>692732</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="I44" t="n">
-        <v>98.20534223706179</v>
+        <v>0.9889107780157029</v>
       </c>
       <c r="J44" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K44" t="n">
-        <v>83.48722901770711</v>
+        <v>294125</v>
       </c>
       <c r="L44" t="n">
-        <v>0.06916264197109581</v>
+        <v>5375</v>
       </c>
       <c r="M44" t="n">
-        <v>0.000540068</v>
+        <v>0.9820534223706174</v>
       </c>
       <c r="N44" t="n">
-        <v>1.86179852561968e-07</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0011120122</v>
+        <v>11433.1</v>
       </c>
       <c r="P44" t="n">
-        <v>3.054913419394843e-07</v>
+        <v>2258.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.8350450071126334</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0009832583435102648</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.00037026105</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.372455736991279e-07</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.00016976105</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.372455736991183e-07</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.001164653205</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.464979731197111e-07</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.001688841276</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.771504315593951e-06</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6630.9</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>20.36884876471913</v>
       </c>
     </row>
     <row r="45">
@@ -2761,46 +4369,82 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002338089761</v>
+        <v>0.003353341337</v>
       </c>
       <c r="D45" t="n">
-        <v>6.518489954920672e-07</v>
+        <v>6.856816527777878e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>576087.8</v>
+        <v>817254.6</v>
       </c>
       <c r="F45" t="n">
-        <v>88.96353185435029</v>
+        <v>155.2900189967147</v>
       </c>
       <c r="G45" t="n">
-        <v>98.8910778015703</v>
+        <v>692732</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="I45" t="n">
-        <v>98.20534223706179</v>
+        <v>0.9889107780157029</v>
       </c>
       <c r="J45" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K45" t="n">
-        <v>84.49957548561525</v>
+        <v>294125</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01754261919764042</v>
+        <v>5375</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0005380439</v>
+        <v>0.9820534223706174</v>
       </c>
       <c r="N45" t="n">
-        <v>4.448176592715924e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0011084842</v>
+        <v>11522.5</v>
       </c>
       <c r="P45" t="n">
-        <v>7.430316278596748e-08</v>
+        <v>2114.3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.8449563027282411</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0001521731799996836</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0003692724</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.739789858000349e-08</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0001687724</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.73978985799982e-08</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.001161193605</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.471526295286772e-08</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.001654102932</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>6.16770273161704e-07</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6443.8</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>3.655133376499413</v>
       </c>
     </row>
     <row r="46">
@@ -2813,46 +4457,82 @@
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002336873625</v>
+        <v>0.003351947785</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>575987</v>
+        <v>816937</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.8910778015703</v>
+        <v>692732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="I46" t="n">
-        <v>98.20534223706179</v>
+        <v>0.9889107780157029</v>
       </c>
       <c r="J46" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="K46" t="n">
-        <v>84.52511917858453</v>
+        <v>294125</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5375</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0005379935000000001</v>
+        <v>0.9820534223706174</v>
       </c>
       <c r="N46" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O46" t="n">
-        <v>0.001108396</v>
+        <v>11525</v>
       </c>
       <c r="P46" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>2110</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.8452511917858454</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0003692467499999999</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.00016874675</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.001161101805</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.00165285248</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6437</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
